--- a/AVS-Sizer/sizer - manual inputs_do not edit.xlsx
+++ b/AVS-Sizer/sizer - manual inputs_do not edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc.sharepoint.com/teams/AzureVMwareSolutionsSales-AVSGBB/Shared Documents/AVS GBB/Americas/AVS Sizer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Sizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="6_{DDF8DF0C-469B-4C0B-B8DD-90FB23200A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D5C879-8926-47E7-B71E-14B47230B7D9}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="6_{DDF8DF0C-469B-4C0B-B8DD-90FB23200A5B}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{34AEDF1D-135C-4875-9145-77FE2D594F8D}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="16035" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing Input " sheetId="5" r:id="rId1"/>
@@ -41,88 +41,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Trevor Davis</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{B33D60DF-DA5A-486D-BBD9-321A88A5101C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trevor Davis:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-How much extra capacity is required for growth</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{454B034F-6F4C-4696-97D1-786D0ECCB208}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trevor Davis:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No De-Duplication = 1, the general guidance would be 1.5 or 2 conservatively</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{1220EBD8-14AD-421B-AE96-7F4B6194BB30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trevor Davis:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-How much extra capacity is required for growth</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{095460B2-10FF-41B8-A3AF-B767F03FA519}" keepAlive="1" name="Query - vCPU (2)" description="Connection to the 'vCPU (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
@@ -144,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>ONLY MODIFY THE CELLS HIGHLIGHTED IN BLUE</t>
   </si>
@@ -200,15 +118,9 @@
     <t>Slack Space (%)</t>
   </si>
   <si>
-    <t>Generally 25-30%, but in larger environments could be less, typically a 20% number is a good conservative estimate</t>
-  </si>
-  <si>
     <t>Dedupe / Compression Factor</t>
   </si>
   <si>
-    <t>No Deduplication = 1 … Choose the deduplication factor you choose, the recommended factor is 1.5 for a conservative estimate</t>
-  </si>
-  <si>
     <t>Growth % (Overall)</t>
   </si>
   <si>
@@ -227,9 +139,6 @@
     <t>FTT=1, Erasure Coding</t>
   </si>
   <si>
-    <t>How many failures to tolerate and would you like to use erasure coding</t>
-  </si>
-  <si>
     <t>N+ Configuration</t>
   </si>
   <si>
@@ -242,15 +151,9 @@
     <t>Deployed</t>
   </si>
   <si>
-    <t>If this is red, ignore the line</t>
-  </si>
-  <si>
     <t>Storage Growth %</t>
   </si>
   <si>
-    <t>How much storage only growth would you like to account for?</t>
-  </si>
-  <si>
     <t>Overcommit Ratio of CPU (x:1)</t>
   </si>
   <si>
@@ -387,6 +290,18 @@
   </si>
   <si>
     <t>CS36m Need</t>
+  </si>
+  <si>
+    <t>Generally 25-30%, but in larger environments could be less, typically a 25% number is a good conservative estimate</t>
+  </si>
+  <si>
+    <t>No Deduplication = 1 … Choose the deduplication factor you choose, the recommended factor is 1.3 for a conservative estimate</t>
+  </si>
+  <si>
+    <t>How many failures to tolerate and would you like to use</t>
+  </si>
+  <si>
+    <t>If set to Need, then the storage will be size to support the amount of consumption the customer has across all the VMs, if set to Deployed, then the cluster will be sized to fix the entirety of the VMDKs, regardless of consumption.</t>
   </si>
 </sst>
 </file>
@@ -400,7 +315,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -470,19 +385,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -496,12 +398,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -511,6 +407,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -734,7 +636,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5"/>
@@ -782,13 +684,13 @@
     </xf>
     <xf numFmtId="167" fontId="6" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1"/>
@@ -807,7 +709,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
@@ -835,10 +737,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyAlignment="1">
@@ -847,7 +749,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,10 +758,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyAlignment="1">
@@ -868,26 +770,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,8 +1182,8 @@
   </sheetPr>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1428,15 +1333,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2">
-    <tabColor theme="8"/>
+    <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1544,19 +1449,19 @@
       <c r="T4" s="49"/>
       <c r="U4" s="49"/>
     </row>
-    <row r="5" spans="1:21" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="69">
         <v>0.25</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
@@ -1573,19 +1478,19 @@
       <c r="T5" s="49"/>
       <c r="U5" s="49"/>
     </row>
-    <row r="6" spans="1:21" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="71">
         <v>1.3</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
@@ -1602,19 +1507,19 @@
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
     </row>
-    <row r="7" spans="1:21" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="69">
         <v>0</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
@@ -1631,19 +1536,19 @@
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
     </row>
-    <row r="8" spans="1:21" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="71">
         <v>5</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -1660,19 +1565,19 @@
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
     </row>
-    <row r="9" spans="1:21" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
       <c r="I9" s="49"/>
@@ -1689,19 +1594,19 @@
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
     </row>
-    <row r="10" spans="1:21" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="71">
         <v>0</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="49"/>
@@ -1720,17 +1625,17 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
@@ -1747,16 +1652,14 @@
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
     </row>
-    <row r="12" spans="1:21" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="69">
         <v>0</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>34</v>
-      </c>
+      <c r="C12" s="70"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -1778,7 +1681,7 @@
     </row>
     <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="72">
         <v>4</v>
@@ -1805,7 +1708,7 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="72">
         <v>1</v>
@@ -1902,7 +1805,7 @@
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="65"/>
       <c r="B18" s="57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -1925,7 +1828,7 @@
     </row>
     <row r="19" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" s="58">
         <f>'CPU Details'!B8+B10</f>
@@ -1952,7 +1855,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="65" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="58">
         <f>'Memory Details'!B8+B10</f>
@@ -1979,7 +1882,7 @@
     </row>
     <row r="21" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="65" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="59">
         <f>'Storage Details'!B27+B10</f>
@@ -2028,7 +1931,7 @@
     </row>
     <row r="23" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" s="60">
         <f>MAX(B19:B21)</f>
@@ -2055,7 +1958,7 @@
     </row>
     <row r="24" spans="1:21" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A24" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>IF(B23=B21,"Storage",IF(B20=B23,"Memory",IF(B19=B23,"CPU")))</f>
@@ -6129,9 +6032,17 @@
       <c r="U200" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6246,21 +6157,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
         <v>2.2000000000000002</v>
@@ -6274,7 +6185,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -6288,7 +6199,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>14</v>
@@ -6302,7 +6213,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <f>B3*B4</f>
@@ -6319,7 +6230,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2">
         <v>256</v>
@@ -6333,7 +6244,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>960</v>
@@ -6347,7 +6258,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -6361,7 +6272,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
         <f>(B8*B7)/1000</f>
@@ -6377,16 +6288,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="11">
         <f>B9/2</f>
@@ -6406,7 +6317,7 @@
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12">
         <f>B9*(1/(1*1.33))</f>
@@ -6426,7 +6337,7 @@
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" s="11">
         <f>B9/3</f>
@@ -6446,7 +6357,7 @@
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="11">
         <f>B9*(1/(1*1.5))</f>
@@ -6474,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -6482,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -6598,7 +6509,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B9" s="20">
         <f>('Sizing Input '!C15/1000)+(B7)+(('Sizing Input '!C15/1000)*B6)</f>
@@ -6607,7 +6518,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="20">
         <f>B9*C8</f>
@@ -6616,7 +6527,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="20">
         <f>B10/B5</f>
@@ -6625,7 +6536,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="20">
         <f>B11+(B11*B4)</f>
@@ -6634,7 +6545,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="20">
         <f>IF(B5&lt;&gt;1,(B12+(B11*0.05247)),B12)</f>
@@ -6643,7 +6554,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="20">
         <f>IF(B5&lt;&gt;1,(B13+(B11*0.1585)),(B13+(B11*0.04088)))</f>
@@ -6674,7 +6585,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" s="14">
         <f>ROUNDUP(B14/'Host Configurations'!C9,0)+D8</f>
@@ -6683,7 +6594,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" s="42">
         <f>B9</f>
@@ -6692,7 +6603,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" s="15">
         <f>0.65*(((B22*'Host Configurations'!C9))-B14)</f>
@@ -6701,7 +6612,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15">
         <f>B23+B24</f>
@@ -6710,7 +6621,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" s="14">
         <f>ROUNDUP(B14/'Host Configurations'!D9,0)+D8</f>
@@ -6723,7 +6634,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28" s="42">
         <f>B9</f>
@@ -6732,7 +6643,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" s="15">
         <f>B30-B28</f>
@@ -6741,7 +6652,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B30" s="15">
         <f>(B27*'Host Configurations'!D9)*C27</f>
@@ -6777,7 +6688,7 @@
         <v>7171</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
@@ -6786,7 +6697,7 @@
         <v>51273</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
@@ -6795,7 +6706,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
@@ -6804,7 +6715,7 @@
         <v>12819</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <f>97301/36</f>
@@ -6819,7 +6730,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5">
         <f>ROUNDUP(A5/'Host Configurations'!C5,0)</f>
@@ -6828,7 +6739,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5">
         <f>ROUNDUP(A5/'Host Configurations'!D5,0)</f>
@@ -6864,7 +6775,7 @@
         <v>7171</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
@@ -6873,7 +6784,7 @@
         <v>28684</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <f>A3/572</f>
@@ -6886,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
@@ -6895,7 +6806,7 @@
         <v>28684</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6903,7 +6814,7 @@
     </row>
     <row r="7" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="17">
         <f>ROUNDUP(A5/'Host Configurations'!C6,0)</f>
@@ -6912,7 +6823,7 @@
     </row>
     <row r="8" spans="1:3" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" s="17">
         <f>ROUNDUP(A5/'Host Configurations'!D6,0)</f>
@@ -7334,7 +7245,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2054D121-84FE-493E-A1CB-D4D7D2AB579B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2054D121-84FE-493E-A1CB-D4D7D2AB579B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a174434f-feee-45f0-8885-d59fe45e3491"/>
+    <ds:schemaRef ds:uri="2cbfe911-e091-41e7-a9b3-a45e99a0a036"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7352,6 +7280,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="2cbfe911-e091-41e7-a9b3-a45e99a0a036"/>
+    <ds:schemaRef ds:uri="a174434f-feee-45f0-8885-d59fe45e3491"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
